--- a/selected_particles/6_particle_selection.xlsx
+++ b/selected_particles/6_particle_selection.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="6_particle_selection" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'6_particle_selection'!$A$1:$H$38</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>frame</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>actual_size</t>
   </si>
   <si>
     <t>video</t>
@@ -89,10 +94,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.86"/>
-    <col customWidth="1" min="3" max="3" width="4.86"/>
-    <col customWidth="1" min="4" max="4" width="2.29"/>
-    <col customWidth="1" min="6" max="6" width="3.29"/>
+    <col customWidth="1" min="1" max="1" width="9.0"/>
+    <col customWidth="1" min="2" max="2" width="10.57"/>
+    <col customWidth="1" min="3" max="5" width="12.0"/>
+    <col customWidth="1" min="6" max="6" width="13.86"/>
+    <col customWidth="1" min="7" max="7" width="2.14"/>
+    <col customWidth="1" min="8" max="8" width="9.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -117,6 +124,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -135,9 +145,12 @@
         <v>23.7793434800375</v>
       </c>
       <c r="F2" s="1">
-        <v>6.0</v>
+        <v>35.5</v>
       </c>
       <c r="G2" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H2" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -158,13 +171,16 @@
         <v>10.4955359237741</v>
       </c>
       <c r="F3" s="1">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>6.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" hidden="1">
       <c r="A4" s="1">
         <v>0.0</v>
       </c>
@@ -180,14 +196,15 @@
       <c r="E4" s="1">
         <v>15.4537688704083</v>
       </c>
-      <c r="F4" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>6.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
       <c r="A5" s="1">
         <v>0.0</v>
       </c>
@@ -203,10 +220,11 @@
       <c r="E5" s="1">
         <v>17.3780889616302</v>
       </c>
-      <c r="F5" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -227,13 +245,16 @@
         <v>10.1245739274326</v>
       </c>
       <c r="F6" s="1">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>6.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7" hidden="1">
       <c r="A7" s="1">
         <v>0.0</v>
       </c>
@@ -249,10 +270,11 @@
       <c r="E7" s="1">
         <v>18.2344472501887</v>
       </c>
-      <c r="F7" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -273,13 +295,16 @@
         <v>17.6959858708414</v>
       </c>
       <c r="F8" s="1">
-        <v>6.0</v>
+        <v>27.0</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
       <c r="A9" s="1">
         <v>0.0</v>
       </c>
@@ -295,10 +320,11 @@
       <c r="E9" s="1">
         <v>21.2815790757696</v>
       </c>
-      <c r="F9" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -319,13 +345,16 @@
         <v>9.93519306708838</v>
       </c>
       <c r="F10" s="1">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="1">
         <v>0.0</v>
       </c>
@@ -341,10 +370,11 @@
       <c r="E11" s="1">
         <v>14.6048596829869</v>
       </c>
-      <c r="F11" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -365,9 +395,12 @@
         <v>11.9203063694404</v>
       </c>
       <c r="F12" s="1">
-        <v>6.0</v>
+        <v>11.5</v>
       </c>
       <c r="G12" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H12" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -388,9 +421,12 @@
         <v>10.3260272694837</v>
       </c>
       <c r="F13" s="1">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="G13" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H13" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -411,13 +447,16 @@
         <v>13.431262767892</v>
       </c>
       <c r="F14" s="1">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="G14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>6.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15" hidden="1">
       <c r="A15" s="1">
         <v>0.0</v>
       </c>
@@ -433,10 +472,11 @@
       <c r="E15" s="1">
         <v>9.864558407131</v>
       </c>
-      <c r="F15" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H15" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -457,13 +497,16 @@
         <v>14.9972731788616</v>
       </c>
       <c r="F16" s="1">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="G16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>6.0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="1">
         <v>0.0</v>
       </c>
@@ -479,10 +522,11 @@
       <c r="E17" s="1">
         <v>14.7055161424428</v>
       </c>
-      <c r="F17" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -503,9 +547,12 @@
         <v>13.3796675270641</v>
       </c>
       <c r="F18" s="1">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="G18" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H18" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -526,13 +573,16 @@
         <v>13.7497102756247</v>
       </c>
       <c r="F19" s="1">
-        <v>6.0</v>
+        <v>22.5</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>6.0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="1">
         <v>0.0</v>
       </c>
@@ -548,14 +598,15 @@
       <c r="E20" s="1">
         <v>13.450095542854</v>
       </c>
-      <c r="F20" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>6.0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" hidden="1">
       <c r="A21" s="1">
         <v>0.0</v>
       </c>
@@ -571,10 +622,11 @@
       <c r="E21" s="1">
         <v>20.9680062221678</v>
       </c>
-      <c r="F21" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H21" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -595,13 +647,16 @@
         <v>11.1269801788252</v>
       </c>
       <c r="F22" s="1">
-        <v>6.0</v>
+        <v>12.5</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>6.0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23" hidden="1">
       <c r="A23" s="1">
         <v>0.0</v>
       </c>
@@ -617,10 +672,11 @@
       <c r="E23" s="1">
         <v>19.8765631199367</v>
       </c>
-      <c r="F23" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -641,13 +697,16 @@
         <v>10.2227645203858</v>
       </c>
       <c r="F24" s="1">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="G24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>6.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" hidden="1">
       <c r="A25" s="1">
         <v>0.0</v>
       </c>
@@ -663,10 +722,11 @@
       <c r="E25" s="1">
         <v>16.3446572029925</v>
       </c>
-      <c r="F25" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H25" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -687,9 +747,12 @@
         <v>9.17321321469591</v>
       </c>
       <c r="F26" s="1">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="G26" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H26" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -710,13 +773,16 @@
         <v>12.2000448982941</v>
       </c>
       <c r="F27" s="1">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="G27" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>6.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
       <c r="A28" s="1">
         <v>0.0</v>
       </c>
@@ -732,14 +798,15 @@
       <c r="E28" s="1">
         <v>11.9632097185463</v>
       </c>
-      <c r="F28" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>6.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
       <c r="A29" s="1">
         <v>0.0</v>
       </c>
@@ -755,10 +822,11 @@
       <c r="E29" s="1">
         <v>14.2827613601803</v>
       </c>
-      <c r="F29" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H29" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -779,13 +847,16 @@
         <v>9.60558696079894</v>
       </c>
       <c r="F30" s="1">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="G30" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>6.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="1">
         <v>0.0</v>
       </c>
@@ -801,10 +872,11 @@
       <c r="E31" s="1">
         <v>22.7104146361077</v>
       </c>
-      <c r="F31" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -825,13 +897,16 @@
         <v>11.2243777373408</v>
       </c>
       <c r="F32" s="1">
-        <v>6.0</v>
+        <v>18.5</v>
       </c>
       <c r="G32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>6.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="1">
         <v>0.0</v>
       </c>
@@ -847,10 +922,11 @@
       <c r="E33" s="1">
         <v>12.2018830084761</v>
       </c>
-      <c r="F33" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H33" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -871,9 +947,12 @@
         <v>10.9845471206234</v>
       </c>
       <c r="F34" s="1">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="G34" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H34" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -894,9 +973,12 @@
         <v>16.9802169248045</v>
       </c>
       <c r="F35" s="1">
-        <v>6.0</v>
+        <v>26.5</v>
       </c>
       <c r="G35" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H35" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -916,14 +998,14 @@
       <c r="E36" s="1">
         <v>19.4060746561199</v>
       </c>
-      <c r="F36" s="1">
-        <v>6.0</v>
-      </c>
       <c r="G36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>6.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" hidden="1">
       <c r="A37" s="1">
         <v>0.0</v>
       </c>
@@ -939,14 +1021,15 @@
       <c r="E37" s="1">
         <v>11.7358665167916</v>
       </c>
-      <c r="F37" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>6.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" hidden="1">
       <c r="A38" s="1">
         <v>0.0</v>
       </c>
@@ -962,14 +1045,22 @@
       <c r="E38" s="1">
         <v>15.2837677191461</v>
       </c>
-      <c r="F38" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H38" s="1">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$H$38">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>